--- a/xdata/SIDO.xlsx
+++ b/xdata/SIDO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="3915" yWindow="285" windowWidth="13440" windowHeight="4545"/>
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>서울특별시</t>
   </si>
@@ -71,14 +70,22 @@
   </si>
   <si>
     <t>세종특별자치시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIDO_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIDO_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +134,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -205,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -239,6 +252,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,151 +428,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
